--- a/DATA_goal/Junction_Flooding_176.xlsx
+++ b/DATA_goal/Junction_Flooding_176.xlsx
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41608.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41608.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.72</v>
+        <v>2.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.97</v>
+        <v>2.3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.17</v>
+        <v>3.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.72</v>
+        <v>14.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.8</v>
+        <v>2.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.54</v>
+        <v>2.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41608.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.42</v>
+        <v>2.04</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.8</v>
+        <v>2.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>102.29</v>
+        <v>10.23</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.01</v>
+        <v>2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.21</v>
+        <v>2.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41608.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>85.19</v>
+        <v>8.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.44</v>
+        <v>2.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41608.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>44.05</v>
+        <v>4.4</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41608.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>35.31</v>
+        <v>3.53</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>28.83</v>
+        <v>2.88</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>45.57</v>
+        <v>4.56</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.04</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>184.82</v>
+        <v>18.48</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>35.09</v>
+        <v>3.51</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>23.75</v>
+        <v>2.37</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.78</v>
+        <v>2.28</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>41.06</v>
+        <v>4.11</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41608.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.65</v>
+        <v>2.26</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49.29</v>
+        <v>4.93</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.43</v>
+        <v>4.04</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.75</v>
+        <v>1.78</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.83</v>
+        <v>6.78</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.27</v>
+        <v>2.53</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.55</v>
+        <v>1.46</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>261.55</v>
+        <v>26.15</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>49.31</v>
+        <v>4.93</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.38</v>
+        <v>3.34</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.42</v>
+        <v>3.34</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.58</v>
+        <v>6.16</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41608.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>43.02</v>
+        <v>4.3</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41608.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="C10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="V10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH10" s="4" t="n">
         <v>0.03</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.28</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_176.xlsx
+++ b/DATA_goal/Junction_Flooding_176.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,31 +443,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41608.34027777778</v>
+        <v>44857.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.47</v>
+        <v>2.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.27</v>
+        <v>1.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.86</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.17</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.42</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.38</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.5</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.66</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.11</v>
+        <v>2.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41608.34722222222</v>
+        <v>44857.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.31</v>
+        <v>2.24</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.87</v>
+        <v>4.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.3</v>
+        <v>3.93</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.22</v>
+        <v>6.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.49</v>
+        <v>2.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.96</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.84</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.51</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.25</v>
+        <v>2.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.85</v>
+        <v>5.94</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41608.35416666666</v>
+        <v>44857.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.74</v>
-      </c>
       <c r="P4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.23</v>
+        <v>9.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>0.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41608.36111111111</v>
+        <v>44857.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <v>1.72</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.65</v>
-      </c>
       <c r="M5" s="4" t="n">
-        <v>0.71</v>
+        <v>1.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.87</v>
+        <v>2.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.49</v>
+        <v>1.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.52</v>
+        <v>22.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.69</v>
+        <v>4.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.14</v>
+        <v>2.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.21</v>
+        <v>2.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.24</v>
+        <v>5.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41608.36805555555</v>
+        <v>44857.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.44</v>
+        <v>3.73</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.31</v>
+        <v>2.73</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.96</v>
+        <v>8.35</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.76</v>
+        <v>6.39</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.34</v>
+        <v>2.9</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.55</v>
+        <v>17.99</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.49</v>
+        <v>4.63</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.25</v>
+        <v>2.11</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.38</v>
+        <v>2.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.35</v>
+        <v>3.34</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.39</v>
+        <v>3.65</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.87</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.35</v>
+        <v>3.01</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.49</v>
+        <v>4.27</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>4.4</v>
+        <v>38.53</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.31</v>
+        <v>2.78</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.64</v>
+        <v>5.77</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.35</v>
+        <v>2.93</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.74</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.28</v>
+        <v>2.45</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.27</v>
+        <v>2.65</v>
       </c>
       <c r="AD6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.41</v>
+        <v>16.87</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.19</v>
+        <v>1.46</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41608.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41608.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41608.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41608.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41608.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>129.42</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>10.39</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_176.xlsx
+++ b/DATA_goal/Junction_Flooding_176.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44857.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44857.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.36</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.9</v>
+        <v>49.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.93</v>
+        <v>39.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.51</v>
+        <v>65.14</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>261.64</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>2.73</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>3.3</v>
+        <v>32.96</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.67</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.94</v>
+        <v>59.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44857.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.07</v>
+        <v>30.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.57</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.11</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.55</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44857.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.28</v>
+        <v>42.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.48</v>
+        <v>34.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.8</v>
+        <v>58.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.38</v>
+        <v>23.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.73</v>
+        <v>227.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.3</v>
+        <v>43.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.85</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.87</v>
+        <v>28.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.26</v>
+        <v>52.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_176.xlsx
+++ b/DATA_goal/Junction_Flooding_176.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44857.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44857.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.36</v>
+        <v>22.362</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>16.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.96</v>
+        <v>1.958</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.03</v>
+        <v>49.032</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>39.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.48</v>
+        <v>17.476</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.14</v>
+        <v>65.143</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>27.31</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.01</v>
+        <v>12.014</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>17.42</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.64</v>
+        <v>19.636</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21</v>
+        <v>20.996</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.45</v>
+        <v>5.455</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.93</v>
+        <v>24.933</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.174</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.951</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.64</v>
+        <v>261.642</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.37</v>
+        <v>49.368</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.84</v>
+        <v>32.835</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.28</v>
+        <v>17.275</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.73</v>
+        <v>2.726</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.96</v>
+        <v>32.958</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.91</v>
+        <v>12.913</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.13</v>
+        <v>15.128</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.67</v>
+        <v>20.666</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.42</v>
+        <v>59.418</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.025</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.39</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>44857.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.48</v>
+        <v>8.484</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.22</v>
+        <v>6.224</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.039</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.78</v>
+        <v>18.776</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.69</v>
+        <v>14.687</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.6</v>
+        <v>6.601</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>30.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.44</v>
+        <v>10.442</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.59</v>
+        <v>4.588</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.52</v>
+        <v>7.518</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.119</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.01</v>
+        <v>2.012</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.49</v>
+        <v>9.488</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.99</v>
+        <v>5.992</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.416</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>95.70699999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.11</v>
+        <v>19.106</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.54</v>
+        <v>12.539</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.547</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.141</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.73</v>
+        <v>14.728</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.04</v>
+        <v>5.037</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>7.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.24</v>
+        <v>28.242</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.367</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>7.81</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44857.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_176.xlsx
+++ b/DATA_goal/Junction_Flooding_176.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -452,18 +452,18 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -967,103 +967,207 @@
         <v>44857.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.57</v>
+        <v>19.566</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.6</v>
+        <v>14.601</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.203</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>42.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.78</v>
+        <v>34.778</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.34</v>
+        <v>15.344</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>58.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.82</v>
+        <v>23.823</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.63</v>
+        <v>10.627</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.5</v>
+        <v>15.505</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.18</v>
+        <v>17.177</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.31</v>
+        <v>18.306</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.82</v>
+        <v>4.818</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.86</v>
+        <v>21.859</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.07</v>
+        <v>13.068</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.3</v>
+        <v>227.298</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.05</v>
+        <v>43.046</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.85</v>
+        <v>28.851</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.17</v>
+        <v>15.166</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.2</v>
+        <v>2.204</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.72</v>
+        <v>28.721</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.17</v>
+        <v>11.174</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.12</v>
+        <v>13.123</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.06</v>
+        <v>18.063</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.59</v>
+        <v>52.588</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.96</v>
+        <v>7.964</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44857.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.53</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_176.xlsx
+++ b/DATA_goal/Junction_Flooding_176.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -452,18 +452,18 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -967,207 +967,103 @@
         <v>44857.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.566</v>
+        <v>19.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.601</v>
+        <v>14.6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.203</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>42.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.778</v>
+        <v>34.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.344</v>
+        <v>15.34</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>58.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.823</v>
+        <v>23.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.627</v>
+        <v>10.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.505</v>
+        <v>15.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.177</v>
+        <v>17.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.306</v>
+        <v>18.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.818</v>
+        <v>4.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.414</v>
+        <v>15.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.859</v>
+        <v>21.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.068</v>
+        <v>13.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.298</v>
+        <v>227.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.046</v>
+        <v>43.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.228</v>
+        <v>14.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.851</v>
+        <v>28.85</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.166</v>
+        <v>15.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.204</v>
+        <v>2.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.721</v>
+        <v>28.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.568</v>
+        <v>12.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.174</v>
+        <v>11.17</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.123</v>
+        <v>13.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.063</v>
+        <v>18.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.588</v>
+        <v>52.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.964</v>
+        <v>7.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.788</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44857.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>
